--- a/Base/Backlog_4.xlsx
+++ b/Base/Backlog_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5342F37B-F2EA-4E62-B06C-6C419F73941B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1FCBD0-DF59-45C2-BDB7-B70D10475742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="31">
   <si>
     <t>Backlog</t>
   </si>
@@ -70,55 +70,10 @@
     <t>Semana</t>
   </si>
   <si>
-    <t xml:space="preserve">Mara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arthur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Higor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antônio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felipe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorgenaldo </t>
-  </si>
-  <si>
-    <t>Edson</t>
-  </si>
-  <si>
-    <t>Gustavo</t>
-  </si>
-  <si>
-    <t>Barbin</t>
-  </si>
-  <si>
     <t>Inicio_Semana</t>
   </si>
   <si>
     <t>Final_Semana</t>
-  </si>
-  <si>
-    <t>Alana</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Lourival</t>
-  </si>
-  <si>
-    <t>Erick</t>
   </si>
   <si>
     <t>Semana 04</t>
@@ -126,12 +81,66 @@
   <si>
     <t>Pendente</t>
   </si>
+  <si>
+    <t>Mara Neves</t>
+  </si>
+  <si>
+    <t>Arthur Hassuma</t>
+  </si>
+  <si>
+    <t>Higor Cruz</t>
+  </si>
+  <si>
+    <t>Coordenador</t>
+  </si>
+  <si>
+    <t>Willian Jones</t>
+  </si>
+  <si>
+    <t>Emerson Simette</t>
+  </si>
+  <si>
+    <t>Antônio Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felipe Nascimento </t>
+  </si>
+  <si>
+    <t>Jorgenaldo Reis</t>
+  </si>
+  <si>
+    <t>Gustavo Linpiski</t>
+  </si>
+  <si>
+    <t>Patrick Doyle</t>
+  </si>
+  <si>
+    <t>Gabriel Lopez</t>
+  </si>
+  <si>
+    <t>Edson Campos</t>
+  </si>
+  <si>
+    <t>Diogo Barbin</t>
+  </si>
+  <si>
+    <t>Alana Neris</t>
+  </si>
+  <si>
+    <t>Lourival Moizés</t>
+  </si>
+  <si>
+    <t>Erick Silva</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +176,14 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,7 +223,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -217,10 +233,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -237,15 +249,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,935 +576,1010 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="11"/>
-    <col min="11" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
+      <c r="B2" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E2" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F2" s="8">
+        <v>11</v>
+      </c>
+      <c r="D2" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E2" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F2" s="7">
         <v>300289</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>45505</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="13">
         <v>45597</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
+      <c r="B3" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E3" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F3" s="8">
+        <v>11</v>
+      </c>
+      <c r="D3" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E3" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F3" s="7">
         <v>304185</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>45536</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="13">
         <v>45597</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
+      <c r="B4" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E4" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F4" s="8">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E4" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F4" s="7">
         <v>307965</v>
       </c>
-      <c r="G4" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H4" s="16">
+      <c r="G4" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H4" s="13">
         <v>45597</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
+      <c r="B5" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E5" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F5" s="8">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E5" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F5" s="7">
         <v>308167</v>
       </c>
-      <c r="G5" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H5" s="16">
+      <c r="G5" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H5" s="13">
         <v>45597</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
+      <c r="B6" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E6" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F6" s="8">
+        <v>11</v>
+      </c>
+      <c r="D6" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E6" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F6" s="7">
         <v>309240</v>
       </c>
-      <c r="G6" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H6" s="16">
+      <c r="G6" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H6" s="13">
         <v>45597</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
+      <c r="B7" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E7" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F7" s="8">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E7" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F7" s="7">
         <v>300177</v>
       </c>
-      <c r="G7" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H7" s="13">
         <v>45597</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
+      <c r="B8" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E8" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F8" s="8">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E8" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F8" s="7">
         <v>310180</v>
       </c>
-      <c r="G8" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H8" s="16">
+      <c r="G8" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H8" s="13">
         <v>45597</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
+      <c r="B9" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E9" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F9" s="8">
+        <v>11</v>
+      </c>
+      <c r="D9" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E9" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F9" s="7">
         <v>310181</v>
       </c>
-      <c r="G9" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H9" s="16">
+      <c r="G9" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H9" s="13">
         <v>45597</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
+      <c r="B10" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E10" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F10" s="8">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E10" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F10" s="7">
         <v>310184</v>
       </c>
-      <c r="G10" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="G10" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H10" s="13">
         <v>45597</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
+      <c r="B11" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E11" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F11" s="8">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E11" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F11" s="7">
         <v>310582</v>
       </c>
-      <c r="G11" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="G11" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H11" s="13">
         <v>45597</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>9</v>
+      <c r="B12" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E12" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F12" s="8">
+        <v>11</v>
+      </c>
+      <c r="D12" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E12" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F12" s="7">
         <v>311617</v>
       </c>
-      <c r="G12" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H12" s="16">
+      <c r="G12" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H12" s="13">
         <v>45597</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>10</v>
+      <c r="B13" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E13" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F13" s="8">
+        <v>11</v>
+      </c>
+      <c r="D13" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E13" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F13" s="7">
         <v>297837</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>45474</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="13">
         <v>45597</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>10</v>
+      <c r="B14" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E14" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F14" s="8">
+        <v>11</v>
+      </c>
+      <c r="D14" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E14" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F14" s="7">
         <v>300757</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>45505</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="13">
         <v>45597</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>10</v>
+      <c r="B15" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E15" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F15" s="8">
+        <v>11</v>
+      </c>
+      <c r="D15" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E15" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F15" s="7">
         <v>302320</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>45536</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="13">
         <v>45597</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>10</v>
+      <c r="B16" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E16" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F16" s="8">
+        <v>11</v>
+      </c>
+      <c r="D16" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E16" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F16" s="7">
         <v>306045</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>45536</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="13">
         <v>45597</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>10</v>
+      <c r="B17" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E17" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F17" s="8">
+        <v>11</v>
+      </c>
+      <c r="D17" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E17" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F17" s="7">
         <v>306070</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>45536</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="13">
         <v>45597</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>10</v>
+      <c r="B18" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E18" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F18" s="8">
+        <v>11</v>
+      </c>
+      <c r="D18" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E18" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F18" s="7">
         <v>302089</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>45505</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="13">
         <v>45597</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>10</v>
+      <c r="B19" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E19" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F19" s="8">
+        <v>11</v>
+      </c>
+      <c r="D19" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E19" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F19" s="7">
         <v>309820</v>
       </c>
-      <c r="G19" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H19" s="16">
+      <c r="G19" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H19" s="13">
         <v>45597</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>10</v>
+      <c r="B20" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E20" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F20" s="8">
+        <v>11</v>
+      </c>
+      <c r="D20" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E20" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F20" s="7">
         <v>310302</v>
       </c>
-      <c r="G20" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H20" s="16">
+      <c r="G20" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H20" s="13">
         <v>45597</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>10</v>
+      <c r="B21" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E21" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F21" s="8">
+        <v>11</v>
+      </c>
+      <c r="D21" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E21" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F21" s="7">
         <v>310428</v>
       </c>
-      <c r="G21" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H21" s="16">
+      <c r="G21" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H21" s="13">
         <v>45597</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>10</v>
+      <c r="B22" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E22" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F22" s="8">
+        <v>11</v>
+      </c>
+      <c r="D22" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E22" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F22" s="7">
         <v>310713</v>
       </c>
-      <c r="G22" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H22" s="16">
+      <c r="G22" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H22" s="13">
         <v>45597</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>10</v>
+      <c r="B23" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E23" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F23" s="8">
+        <v>11</v>
+      </c>
+      <c r="D23" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E23" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F23" s="7">
         <v>311030</v>
       </c>
-      <c r="G23" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H23" s="16">
+      <c r="G23" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H23" s="13">
         <v>45597</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>10</v>
+      <c r="B24" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E24" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F24" s="8">
+        <v>11</v>
+      </c>
+      <c r="D24" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E24" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F24" s="7">
         <v>311389</v>
       </c>
-      <c r="G24" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H24" s="16">
+      <c r="G24" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H24" s="13">
         <v>45597</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>11</v>
+      <c r="B25" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E25" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F25" s="8">
+        <v>11</v>
+      </c>
+      <c r="D25" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E25" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F25" s="7">
         <v>300191</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>45474</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="13">
         <v>45597</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>11</v>
+      <c r="B26" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E26" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F26" s="8">
+        <v>11</v>
+      </c>
+      <c r="D26" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E26" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F26" s="7">
         <v>307910</v>
       </c>
-      <c r="G26" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H26" s="16">
+      <c r="G26" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H26" s="13">
         <v>45597</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>11</v>
+      <c r="B27" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E27" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F27" s="8">
+        <v>11</v>
+      </c>
+      <c r="D27" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E27" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F27" s="7">
         <v>308379</v>
       </c>
-      <c r="G27" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H27" s="16">
+      <c r="G27" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H27" s="13">
         <v>45597</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>11</v>
+      <c r="B28" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E28" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F28" s="8">
+        <v>11</v>
+      </c>
+      <c r="D28" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E28" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F28" s="7">
         <v>310603</v>
       </c>
-      <c r="G28" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H28" s="16">
+      <c r="G28" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H28" s="13">
         <v>45597</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>11</v>
+      <c r="B29" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E29" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F29" s="8">
+        <v>11</v>
+      </c>
+      <c r="D29" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E29" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F29" s="7">
         <v>311397</v>
       </c>
-      <c r="G29" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H29" s="16">
+      <c r="G29" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H29" s="13">
         <v>45597</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>11</v>
+      <c r="B30" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="16">
-        <v>45593</v>
-      </c>
-      <c r="E30" s="16">
-        <v>45597</v>
-      </c>
-      <c r="F30" s="8">
+        <v>11</v>
+      </c>
+      <c r="D30" s="13">
+        <v>45593</v>
+      </c>
+      <c r="E30" s="13">
+        <v>45597</v>
+      </c>
+      <c r="F30" s="7">
         <v>311451</v>
       </c>
-      <c r="G30" s="9">
-        <v>45566</v>
-      </c>
-      <c r="H30" s="16">
+      <c r="G30" s="8">
+        <v>45566</v>
+      </c>
+      <c r="H30" s="13">
         <v>45597</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D31" s="16"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="17"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="18"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="17"/>
-      <c r="F34" s="18"/>
+      <c r="C34" s="14"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="17"/>
-      <c r="F36" s="18"/>
+      <c r="C36" s="14"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="17"/>
+      <c r="C38" s="14"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="17"/>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D41" s="18"/>
+      <c r="D41" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I30" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}"/>
@@ -1503,22 +1592,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I45"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.5703125" style="2"/>
   </cols>
   <sheetData>
@@ -1533,10 +1622,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1550,16 +1639,19 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="19" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>26</v>
+      <c r="A2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="3">
         <v>45593</v>
@@ -1576,19 +1668,22 @@
       <c r="H2" s="3">
         <v>45597</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>27</v>
+      <c r="I2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>26</v>
+      <c r="A3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>45593</v>
@@ -1605,19 +1700,22 @@
       <c r="H3" s="3">
         <v>45597</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>27</v>
+      <c r="I3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>26</v>
+      <c r="A4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>45593</v>
@@ -1634,19 +1732,22 @@
       <c r="H4" s="3">
         <v>45597</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>27</v>
+      <c r="I4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>26</v>
+      <c r="A5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="3">
         <v>45593</v>
@@ -1663,19 +1764,22 @@
       <c r="H5" s="3">
         <v>45597</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>27</v>
+      <c r="I5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>26</v>
+      <c r="A6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="3">
         <v>45593</v>
@@ -1692,19 +1796,22 @@
       <c r="H6" s="3">
         <v>45597</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>27</v>
+      <c r="I6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>26</v>
+      <c r="A7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="3">
         <v>45593</v>
@@ -1721,19 +1828,22 @@
       <c r="H7" s="3">
         <v>45597</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>27</v>
+      <c r="I7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>26</v>
+      <c r="A8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="3">
         <v>45593</v>
@@ -1741,7 +1851,7 @@
       <c r="E8" s="3">
         <v>45597</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="16">
         <v>311029</v>
       </c>
       <c r="G8" s="4">
@@ -1750,19 +1860,22 @@
       <c r="H8" s="3">
         <v>45597</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>27</v>
+      <c r="I8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>26</v>
+      <c r="A9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="3">
         <v>45593</v>
@@ -1770,7 +1883,7 @@
       <c r="E9" s="3">
         <v>45597</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="16">
         <v>311181</v>
       </c>
       <c r="G9" s="4">
@@ -1779,19 +1892,22 @@
       <c r="H9" s="3">
         <v>45597</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>27</v>
+      <c r="I9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>26</v>
+      <c r="A10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="3">
         <v>45593</v>
@@ -1799,7 +1915,7 @@
       <c r="E10" s="3">
         <v>45597</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="16">
         <v>311246</v>
       </c>
       <c r="G10" s="4">
@@ -1808,19 +1924,22 @@
       <c r="H10" s="3">
         <v>45597</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>27</v>
+      <c r="I10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>26</v>
+      <c r="A11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="3">
         <v>45593</v>
@@ -1828,7 +1947,7 @@
       <c r="E11" s="3">
         <v>45597</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="16">
         <v>311348</v>
       </c>
       <c r="G11" s="4">
@@ -1837,19 +1956,22 @@
       <c r="H11" s="3">
         <v>45597</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>27</v>
+      <c r="I11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>26</v>
+      <c r="A12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D12" s="3">
         <v>45593</v>
@@ -1857,7 +1979,7 @@
       <c r="E12" s="3">
         <v>45597</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="16">
         <v>311521</v>
       </c>
       <c r="G12" s="4">
@@ -1866,19 +1988,22 @@
       <c r="H12" s="3">
         <v>45597</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>27</v>
+      <c r="I12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>26</v>
+      <c r="A13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="3">
         <v>45593</v>
@@ -1886,7 +2011,7 @@
       <c r="E13" s="3">
         <v>45597</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="16">
         <v>311720</v>
       </c>
       <c r="G13" s="4">
@@ -1895,19 +2020,22 @@
       <c r="H13" s="3">
         <v>45597</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>27</v>
+      <c r="I13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>26</v>
+      <c r="A14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D14" s="3">
         <v>45593</v>
@@ -1915,7 +2043,7 @@
       <c r="E14" s="3">
         <v>45597</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="16">
         <v>279106</v>
       </c>
       <c r="G14" s="4">
@@ -1924,26 +2052,28 @@
       <c r="H14" s="3">
         <v>45597</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="I14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>26</v>
+      <c r="A15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>45593</v>
@@ -1951,7 +2081,7 @@
       <c r="E15" s="3">
         <v>45597</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="16">
         <v>302085</v>
       </c>
       <c r="G15" s="4">
@@ -1960,20 +2090,22 @@
       <c r="H15" s="3">
         <v>45597</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="13"/>
+      <c r="I15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>26</v>
+      <c r="A16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D16" s="3">
         <v>45593</v>
@@ -1990,19 +2122,22 @@
       <c r="H16" s="3">
         <v>45597</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>27</v>
+      <c r="I16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>26</v>
+      <c r="A17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D17" s="3">
         <v>45593</v>
@@ -2019,19 +2154,22 @@
       <c r="H17" s="3">
         <v>45597</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>27</v>
+      <c r="I17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>26</v>
+      <c r="A18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D18" s="3">
         <v>45593</v>
@@ -2048,19 +2186,22 @@
       <c r="H18" s="3">
         <v>45597</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>27</v>
+      <c r="I18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>26</v>
+      <c r="A19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D19" s="3">
         <v>45593</v>
@@ -2077,19 +2218,22 @@
       <c r="H19" s="3">
         <v>45597</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>27</v>
+      <c r="I19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>26</v>
+      <c r="A20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D20" s="3">
         <v>45593</v>
@@ -2106,19 +2250,22 @@
       <c r="H20" s="3">
         <v>45597</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>27</v>
+      <c r="I20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>26</v>
+      <c r="A21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D21" s="3">
         <v>45593</v>
@@ -2126,7 +2273,7 @@
       <c r="E21" s="3">
         <v>45597</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="16">
         <v>309538</v>
       </c>
       <c r="G21" s="4">
@@ -2135,19 +2282,22 @@
       <c r="H21" s="3">
         <v>45597</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>27</v>
+      <c r="I21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>26</v>
+      <c r="A22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D22" s="3">
         <v>45593</v>
@@ -2164,19 +2314,22 @@
       <c r="H22" s="3">
         <v>45597</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>27</v>
+      <c r="I22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="A23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>26</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D23" s="3">
         <v>45593</v>
@@ -2193,19 +2346,22 @@
       <c r="H23" s="3">
         <v>45597</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>27</v>
+      <c r="I23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>26</v>
+      <c r="A24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D24" s="3">
         <v>45593</v>
@@ -2222,24 +2378,26 @@
       <c r="H24" s="3">
         <v>45597</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>26</v>
+      <c r="C25" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D25" s="3">
         <v>45593</v>
@@ -2247,7 +2405,7 @@
       <c r="E25" s="3">
         <v>45597</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="16">
         <v>306760</v>
       </c>
       <c r="G25" s="4">
@@ -2256,19 +2414,22 @@
       <c r="H25" s="3">
         <v>45597</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>26</v>
+      <c r="C26" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D26" s="3">
         <v>45593</v>
@@ -2276,7 +2437,7 @@
       <c r="E26" s="3">
         <v>45597</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="16">
         <v>310145</v>
       </c>
       <c r="G26" s="4">
@@ -2285,19 +2446,22 @@
       <c r="H26" s="3">
         <v>45597</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>26</v>
+      <c r="C27" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D27" s="3">
         <v>45593</v>
@@ -2305,7 +2469,7 @@
       <c r="E27" s="3">
         <v>45597</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="16">
         <v>310798</v>
       </c>
       <c r="G27" s="4">
@@ -2314,19 +2478,22 @@
       <c r="H27" s="3">
         <v>45597</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>26</v>
+      <c r="C28" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D28" s="3">
         <v>45593</v>
@@ -2334,7 +2501,7 @@
       <c r="E28" s="3">
         <v>45597</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="16">
         <v>310854</v>
       </c>
       <c r="G28" s="4">
@@ -2343,19 +2510,22 @@
       <c r="H28" s="3">
         <v>45597</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>26</v>
+      <c r="C29" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D29" s="3">
         <v>45593</v>
@@ -2363,7 +2533,7 @@
       <c r="E29" s="3">
         <v>45597</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="16">
         <v>311045</v>
       </c>
       <c r="G29" s="4">
@@ -2372,19 +2542,22 @@
       <c r="H29" s="3">
         <v>45597</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>26</v>
+      <c r="C30" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D30" s="3">
         <v>45593</v>
@@ -2392,7 +2565,7 @@
       <c r="E30" s="3">
         <v>45597</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="16">
         <v>311449</v>
       </c>
       <c r="G30" s="4">
@@ -2401,19 +2574,22 @@
       <c r="H30" s="3">
         <v>45597</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>26</v>
+      <c r="C31" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D31" s="3">
         <v>45593</v>
@@ -2421,7 +2597,7 @@
       <c r="E31" s="3">
         <v>45597</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="16">
         <v>311556</v>
       </c>
       <c r="G31" s="4">
@@ -2430,19 +2606,22 @@
       <c r="H31" s="3">
         <v>45597</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>26</v>
+      <c r="C32" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D32" s="3">
         <v>45593</v>
@@ -2450,7 +2629,7 @@
       <c r="E32" s="3">
         <v>45597</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="16">
         <v>311595</v>
       </c>
       <c r="G32" s="4">
@@ -2459,19 +2638,22 @@
       <c r="H32" s="3">
         <v>45597</v>
       </c>
-      <c r="I32" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>26</v>
+      <c r="I32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D33" s="3">
         <v>45593</v>
@@ -2479,7 +2661,7 @@
       <c r="E33" s="3">
         <v>45597</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="16">
         <v>310775</v>
       </c>
       <c r="G33" s="4">
@@ -2488,19 +2670,22 @@
       <c r="H33" s="3">
         <v>45597</v>
       </c>
-      <c r="I33" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>26</v>
+      <c r="I33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D34" s="3">
         <v>45593</v>
@@ -2508,7 +2693,7 @@
       <c r="E34" s="3">
         <v>45597</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="16">
         <v>310787</v>
       </c>
       <c r="G34" s="4">
@@ -2517,19 +2702,22 @@
       <c r="H34" s="3">
         <v>45597</v>
       </c>
-      <c r="I34" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>26</v>
+      <c r="I34" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D35" s="3">
         <v>45593</v>
@@ -2537,7 +2725,7 @@
       <c r="E35" s="3">
         <v>45597</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="16">
         <v>310788</v>
       </c>
       <c r="G35" s="4">
@@ -2546,19 +2734,22 @@
       <c r="H35" s="3">
         <v>45597</v>
       </c>
-      <c r="I35" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>26</v>
+      <c r="I35" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D36" s="3">
         <v>45593</v>
@@ -2566,7 +2757,7 @@
       <c r="E36" s="3">
         <v>45597</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="16">
         <v>310791</v>
       </c>
       <c r="G36" s="4">
@@ -2575,19 +2766,22 @@
       <c r="H36" s="3">
         <v>45597</v>
       </c>
-      <c r="I36" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>26</v>
+      <c r="I36" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D37" s="3">
         <v>45593</v>
@@ -2595,7 +2789,7 @@
       <c r="E37" s="3">
         <v>45597</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="16">
         <v>310845</v>
       </c>
       <c r="G37" s="4">
@@ -2604,19 +2798,22 @@
       <c r="H37" s="3">
         <v>45597</v>
       </c>
-      <c r="I37" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>26</v>
+      <c r="I37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D38" s="3">
         <v>45593</v>
@@ -2624,7 +2821,7 @@
       <c r="E38" s="3">
         <v>45597</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="16">
         <v>311310</v>
       </c>
       <c r="G38" s="4">
@@ -2633,19 +2830,22 @@
       <c r="H38" s="3">
         <v>45597</v>
       </c>
-      <c r="I38" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>26</v>
+      <c r="I38" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D39" s="3">
         <v>45593</v>
@@ -2653,7 +2853,7 @@
       <c r="E39" s="3">
         <v>45597</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="16">
         <v>311353</v>
       </c>
       <c r="G39" s="4">
@@ -2662,19 +2862,22 @@
       <c r="H39" s="3">
         <v>45597</v>
       </c>
-      <c r="I39" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>26</v>
+      <c r="I39" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D40" s="3">
         <v>45593</v>
@@ -2682,7 +2885,7 @@
       <c r="E40" s="3">
         <v>45597</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="16">
         <v>311612</v>
       </c>
       <c r="G40" s="4">
@@ -2691,19 +2894,22 @@
       <c r="H40" s="3">
         <v>45597</v>
       </c>
-      <c r="I40" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>26</v>
+      <c r="I40" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D41" s="3">
         <v>45593</v>
@@ -2711,7 +2917,7 @@
       <c r="E41" s="3">
         <v>45597</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="16">
         <v>311775</v>
       </c>
       <c r="G41" s="4">
@@ -2720,19 +2926,22 @@
       <c r="H41" s="3">
         <v>45597</v>
       </c>
-      <c r="I41" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>26</v>
+      <c r="I41" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D42" s="3">
         <v>45593</v>
@@ -2740,7 +2949,7 @@
       <c r="E42" s="3">
         <v>45597</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="16">
         <v>311862</v>
       </c>
       <c r="G42" s="4">
@@ -2749,19 +2958,22 @@
       <c r="H42" s="3">
         <v>45597</v>
       </c>
-      <c r="I42" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>26</v>
+      <c r="I42" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D43" s="3">
         <v>45593</v>
@@ -2769,7 +2981,7 @@
       <c r="E43" s="3">
         <v>45597</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="16">
         <v>311863</v>
       </c>
       <c r="G43" s="4">
@@ -2778,19 +2990,22 @@
       <c r="H43" s="3">
         <v>45597</v>
       </c>
-      <c r="I43" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>26</v>
+      <c r="I43" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D44" s="3">
         <v>45593</v>
@@ -2798,7 +3013,7 @@
       <c r="E44" s="3">
         <v>45597</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="16">
         <v>311864</v>
       </c>
       <c r="G44" s="4">
@@ -2807,19 +3022,22 @@
       <c r="H44" s="3">
         <v>45597</v>
       </c>
-      <c r="I44" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>26</v>
+      <c r="I44" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D45" s="3">
         <v>45593</v>
@@ -2827,7 +3045,7 @@
       <c r="E45" s="3">
         <v>45597</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="16">
         <v>311869</v>
       </c>
       <c r="G45" s="4">
@@ -2836,23 +3054,22 @@
       <c r="H45" s="3">
         <v>45597</v>
       </c>
-      <c r="I45" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E47" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I24" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}"/>
-  <mergeCells count="2">
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J24:N24"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Base/Backlog_4.xlsx
+++ b/Base/Backlog_4.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1FCBD0-DF59-45C2-BDB7-B70D10475742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE338F68-8995-4F3E-8984-F3C496F5A8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
     <sheet name="ITI" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ITI!$A$1:$I$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ITI!$A$1:$I$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SPN!$A$1:$I$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -576,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1590,10 +1590,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1643,7 +1644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2066,7 @@
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>5</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>5</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>5</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>5</v>
       </c>
@@ -2225,7 +2226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>5</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>5</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>5</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>5</v>
       </c>
@@ -2389,7 +2390,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>5</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>5</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>5</v>
       </c>
@@ -2485,7 +2486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>5</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>5</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>5</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>5</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>5</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>5</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>5</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>5</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>5</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>5</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>5</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>5</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>5</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>5</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>5</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>5</v>
       </c>
@@ -2997,7 +2998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>5</v>
       </c>
@@ -3029,7 +3030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>5</v>
       </c>
@@ -3069,7 +3070,13 @@
       <c r="E47" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I24" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}"/>
+  <autoFilter ref="A1:I45" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Felipe Nascimento"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Base/Backlog_4.xlsx
+++ b/Base/Backlog_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE338F68-8995-4F3E-8984-F3C496F5A8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35559CFA-AB6A-4032-8857-7C238EDB36FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
@@ -185,12 +185,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -205,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,6 +266,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1590,11 +1599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
@@ -1669,14 +1677,14 @@
       <c r="H2" s="3">
         <v>45597</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>12</v>
+      <c r="I2" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
@@ -1701,14 +1709,14 @@
       <c r="H3" s="3">
         <v>45597</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>12</v>
+      <c r="I3" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -1733,14 +1741,14 @@
       <c r="H4" s="3">
         <v>45597</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>12</v>
+      <c r="I4" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -1765,14 +1773,14 @@
       <c r="H5" s="3">
         <v>45597</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>12</v>
+      <c r="I5" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -1797,14 +1805,14 @@
       <c r="H6" s="3">
         <v>45597</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>12</v>
+      <c r="I6" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -1829,8 +1837,8 @@
       <c r="H7" s="3">
         <v>45597</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>12</v>
+      <c r="I7" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>18</v>
@@ -1861,8 +1869,8 @@
       <c r="H8" s="3">
         <v>45597</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>12</v>
+      <c r="I8" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>18</v>
@@ -1893,8 +1901,8 @@
       <c r="H9" s="3">
         <v>45597</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>12</v>
+      <c r="I9" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>18</v>
@@ -1925,8 +1933,8 @@
       <c r="H10" s="3">
         <v>45597</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>12</v>
+      <c r="I10" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>18</v>
@@ -1957,8 +1965,8 @@
       <c r="H11" s="3">
         <v>45597</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>12</v>
+      <c r="I11" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>18</v>
@@ -1989,8 +1997,8 @@
       <c r="H12" s="3">
         <v>45597</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>12</v>
+      <c r="I12" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>18</v>
@@ -2021,14 +2029,14 @@
       <c r="H13" s="3">
         <v>45597</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>12</v>
+      <c r="I13" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>5</v>
       </c>
@@ -2053,8 +2061,8 @@
       <c r="H14" s="3">
         <v>45597</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>12</v>
+      <c r="I14" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>18</v>
@@ -2066,7 +2074,7 @@
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
@@ -2091,14 +2099,14 @@
       <c r="H15" s="3">
         <v>45597</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>12</v>
+      <c r="I15" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>5</v>
       </c>
@@ -2123,14 +2131,14 @@
       <c r="H16" s="3">
         <v>45597</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>12</v>
+      <c r="I16" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J16" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>5</v>
       </c>
@@ -2155,14 +2163,14 @@
       <c r="H17" s="3">
         <v>45597</v>
       </c>
-      <c r="I17" s="16" t="s">
-        <v>12</v>
+      <c r="I17" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J17" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>5</v>
       </c>
@@ -2187,14 +2195,14 @@
       <c r="H18" s="3">
         <v>45597</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>12</v>
+      <c r="I18" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>5</v>
       </c>
@@ -2219,14 +2227,14 @@
       <c r="H19" s="3">
         <v>45597</v>
       </c>
-      <c r="I19" s="16" t="s">
-        <v>12</v>
+      <c r="I19" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>5</v>
       </c>
@@ -2251,8 +2259,8 @@
       <c r="H20" s="3">
         <v>45597</v>
       </c>
-      <c r="I20" s="16" t="s">
-        <v>12</v>
+      <c r="I20" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J20" s="16" t="s">
         <v>18</v>
@@ -2283,14 +2291,14 @@
       <c r="H21" s="3">
         <v>45597</v>
       </c>
-      <c r="I21" s="16" t="s">
-        <v>12</v>
+      <c r="I21" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>5</v>
       </c>
@@ -2315,14 +2323,14 @@
       <c r="H22" s="3">
         <v>45597</v>
       </c>
-      <c r="I22" s="16" t="s">
-        <v>12</v>
+      <c r="I22" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>5</v>
       </c>
@@ -2347,14 +2355,14 @@
       <c r="H23" s="3">
         <v>45597</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>12</v>
+      <c r="I23" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J23" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>5</v>
       </c>
@@ -2379,8 +2387,8 @@
       <c r="H24" s="3">
         <v>45597</v>
       </c>
-      <c r="I24" s="16" t="s">
-        <v>12</v>
+      <c r="I24" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>18</v>
@@ -2390,7 +2398,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>5</v>
       </c>
@@ -2415,14 +2423,14 @@
       <c r="H25" s="3">
         <v>45597</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>12</v>
+      <c r="I25" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>5</v>
       </c>
@@ -2447,14 +2455,14 @@
       <c r="H26" s="3">
         <v>45597</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>12</v>
+      <c r="I26" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>5</v>
       </c>
@@ -2479,14 +2487,14 @@
       <c r="H27" s="3">
         <v>45597</v>
       </c>
-      <c r="I27" s="16" t="s">
-        <v>12</v>
+      <c r="I27" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>5</v>
       </c>
@@ -2511,14 +2519,14 @@
       <c r="H28" s="3">
         <v>45597</v>
       </c>
-      <c r="I28" s="16" t="s">
-        <v>12</v>
+      <c r="I28" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J28" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>5</v>
       </c>
@@ -2543,14 +2551,14 @@
       <c r="H29" s="3">
         <v>45597</v>
       </c>
-      <c r="I29" s="16" t="s">
-        <v>12</v>
+      <c r="I29" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J29" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>5</v>
       </c>
@@ -2575,14 +2583,14 @@
       <c r="H30" s="3">
         <v>45597</v>
       </c>
-      <c r="I30" s="16" t="s">
-        <v>12</v>
+      <c r="I30" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>5</v>
       </c>
@@ -2607,14 +2615,14 @@
       <c r="H31" s="3">
         <v>45597</v>
       </c>
-      <c r="I31" s="16" t="s">
-        <v>12</v>
+      <c r="I31" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J31" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>5</v>
       </c>
@@ -2639,14 +2647,14 @@
       <c r="H32" s="3">
         <v>45597</v>
       </c>
-      <c r="I32" s="16" t="s">
-        <v>12</v>
+      <c r="I32" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J32" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>5</v>
       </c>
@@ -2671,14 +2679,14 @@
       <c r="H33" s="3">
         <v>45597</v>
       </c>
-      <c r="I33" s="16" t="s">
-        <v>12</v>
+      <c r="I33" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J33" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>5</v>
       </c>
@@ -2703,14 +2711,14 @@
       <c r="H34" s="3">
         <v>45597</v>
       </c>
-      <c r="I34" s="16" t="s">
-        <v>12</v>
+      <c r="I34" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>5</v>
       </c>
@@ -2735,14 +2743,14 @@
       <c r="H35" s="3">
         <v>45597</v>
       </c>
-      <c r="I35" s="16" t="s">
-        <v>12</v>
+      <c r="I35" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J35" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>5</v>
       </c>
@@ -2767,14 +2775,14 @@
       <c r="H36" s="3">
         <v>45597</v>
       </c>
-      <c r="I36" s="16" t="s">
-        <v>12</v>
+      <c r="I36" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J36" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>5</v>
       </c>
@@ -2799,14 +2807,14 @@
       <c r="H37" s="3">
         <v>45597</v>
       </c>
-      <c r="I37" s="16" t="s">
-        <v>12</v>
+      <c r="I37" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J37" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>5</v>
       </c>
@@ -2831,14 +2839,14 @@
       <c r="H38" s="3">
         <v>45597</v>
       </c>
-      <c r="I38" s="16" t="s">
-        <v>12</v>
+      <c r="I38" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J38" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>5</v>
       </c>
@@ -2863,14 +2871,14 @@
       <c r="H39" s="3">
         <v>45597</v>
       </c>
-      <c r="I39" s="16" t="s">
-        <v>12</v>
+      <c r="I39" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>5</v>
       </c>
@@ -2895,14 +2903,14 @@
       <c r="H40" s="3">
         <v>45597</v>
       </c>
-      <c r="I40" s="16" t="s">
-        <v>12</v>
+      <c r="I40" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J40" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>5</v>
       </c>
@@ -2927,14 +2935,14 @@
       <c r="H41" s="3">
         <v>45597</v>
       </c>
-      <c r="I41" s="16" t="s">
-        <v>12</v>
+      <c r="I41" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J41" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>5</v>
       </c>
@@ -2959,14 +2967,14 @@
       <c r="H42" s="3">
         <v>45597</v>
       </c>
-      <c r="I42" s="16" t="s">
-        <v>12</v>
+      <c r="I42" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J42" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>5</v>
       </c>
@@ -2991,14 +2999,14 @@
       <c r="H43" s="3">
         <v>45597</v>
       </c>
-      <c r="I43" s="16" t="s">
-        <v>12</v>
+      <c r="I43" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>5</v>
       </c>
@@ -3023,14 +3031,14 @@
       <c r="H44" s="3">
         <v>45597</v>
       </c>
-      <c r="I44" s="16" t="s">
-        <v>12</v>
+      <c r="I44" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J44" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>5</v>
       </c>
@@ -3055,8 +3063,8 @@
       <c r="H45" s="3">
         <v>45597</v>
       </c>
-      <c r="I45" s="16" t="s">
-        <v>12</v>
+      <c r="I45" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J45" s="16" t="s">
         <v>18</v>
@@ -3070,13 +3078,7 @@
       <c r="E47" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I45" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Felipe Nascimento"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I45" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Base/Backlog_4.xlsx
+++ b/Base/Backlog_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35559CFA-AB6A-4032-8857-7C238EDB36FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6C8B6C-486B-46F9-8176-A2B05124B93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="30">
   <si>
     <t>Backlog</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Final_Semana</t>
-  </si>
-  <si>
-    <t>Semana 04</t>
   </si>
   <si>
     <t>Pendente</t>
@@ -585,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -633,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -641,10 +638,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4</v>
       </c>
       <c r="D2" s="13">
         <v>45593</v>
@@ -662,10 +659,10 @@
         <v>45597</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -673,10 +670,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4</v>
       </c>
       <c r="D3" s="13">
         <v>45593</v>
@@ -694,10 +691,10 @@
         <v>45597</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -705,10 +702,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4</v>
       </c>
       <c r="D4" s="13">
         <v>45593</v>
@@ -726,10 +723,10 @@
         <v>45597</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -737,10 +734,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
       </c>
       <c r="D5" s="13">
         <v>45593</v>
@@ -758,10 +755,10 @@
         <v>45597</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -769,10 +766,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
       </c>
       <c r="D6" s="13">
         <v>45593</v>
@@ -790,10 +787,10 @@
         <v>45597</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -801,10 +798,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4</v>
       </c>
       <c r="D7" s="13">
         <v>45593</v>
@@ -822,10 +819,10 @@
         <v>45597</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -833,10 +830,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
       </c>
       <c r="D8" s="13">
         <v>45593</v>
@@ -854,10 +851,10 @@
         <v>45597</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -865,10 +862,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4</v>
       </c>
       <c r="D9" s="13">
         <v>45593</v>
@@ -886,10 +883,10 @@
         <v>45597</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -897,10 +894,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
       </c>
       <c r="D10" s="13">
         <v>45593</v>
@@ -918,10 +915,10 @@
         <v>45597</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -929,10 +926,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4</v>
       </c>
       <c r="D11" s="13">
         <v>45593</v>
@@ -950,10 +947,10 @@
         <v>45597</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -961,10 +958,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4</v>
       </c>
       <c r="D12" s="13">
         <v>45593</v>
@@ -982,10 +979,10 @@
         <v>45597</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -993,10 +990,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4</v>
       </c>
       <c r="D13" s="13">
         <v>45593</v>
@@ -1014,10 +1011,10 @@
         <v>45597</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1025,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4</v>
       </c>
       <c r="D14" s="13">
         <v>45593</v>
@@ -1046,10 +1043,10 @@
         <v>45597</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1057,10 +1054,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
       </c>
       <c r="D15" s="13">
         <v>45593</v>
@@ -1078,10 +1075,10 @@
         <v>45597</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1089,10 +1086,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
       </c>
       <c r="D16" s="13">
         <v>45593</v>
@@ -1110,10 +1107,10 @@
         <v>45597</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1121,10 +1118,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4</v>
       </c>
       <c r="D17" s="13">
         <v>45593</v>
@@ -1142,10 +1139,10 @@
         <v>45597</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1153,10 +1150,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C18" s="6">
+        <v>4</v>
       </c>
       <c r="D18" s="13">
         <v>45593</v>
@@ -1174,10 +1171,10 @@
         <v>45597</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1185,10 +1182,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C19" s="6">
+        <v>4</v>
       </c>
       <c r="D19" s="13">
         <v>45593</v>
@@ -1206,10 +1203,10 @@
         <v>45597</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1217,10 +1214,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C20" s="6">
+        <v>4</v>
       </c>
       <c r="D20" s="13">
         <v>45593</v>
@@ -1238,10 +1235,10 @@
         <v>45597</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1249,10 +1246,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4</v>
       </c>
       <c r="D21" s="13">
         <v>45593</v>
@@ -1270,10 +1267,10 @@
         <v>45597</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1281,10 +1278,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4</v>
       </c>
       <c r="D22" s="13">
         <v>45593</v>
@@ -1302,10 +1299,10 @@
         <v>45597</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1313,10 +1310,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C23" s="6">
+        <v>4</v>
       </c>
       <c r="D23" s="13">
         <v>45593</v>
@@ -1334,10 +1331,10 @@
         <v>45597</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1345,10 +1342,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C24" s="6">
+        <v>4</v>
       </c>
       <c r="D24" s="13">
         <v>45593</v>
@@ -1366,10 +1363,10 @@
         <v>45597</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1377,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C25" s="6">
+        <v>4</v>
       </c>
       <c r="D25" s="13">
         <v>45593</v>
@@ -1398,10 +1395,10 @@
         <v>45597</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1409,10 +1406,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4</v>
       </c>
       <c r="D26" s="13">
         <v>45593</v>
@@ -1430,10 +1427,10 @@
         <v>45597</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1441,10 +1438,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4</v>
       </c>
       <c r="D27" s="13">
         <v>45593</v>
@@ -1462,10 +1459,10 @@
         <v>45597</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1473,10 +1470,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4</v>
       </c>
       <c r="D28" s="13">
         <v>45593</v>
@@ -1494,10 +1491,10 @@
         <v>45597</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1505,10 +1502,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C29" s="6">
+        <v>4</v>
       </c>
       <c r="D29" s="13">
         <v>45593</v>
@@ -1526,10 +1523,10 @@
         <v>45597</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1537,10 +1534,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4</v>
       </c>
       <c r="D30" s="13">
         <v>45593</v>
@@ -1558,10 +1555,10 @@
         <v>45597</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1601,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1649,7 +1646,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1657,10 +1654,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C2" s="16">
+        <v>4</v>
       </c>
       <c r="D2" s="3">
         <v>45593</v>
@@ -1678,10 +1675,10 @@
         <v>45597</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1689,10 +1686,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="16">
+        <v>4</v>
       </c>
       <c r="D3" s="3">
         <v>45593</v>
@@ -1710,10 +1707,10 @@
         <v>45597</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1721,10 +1718,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="16">
+        <v>4</v>
       </c>
       <c r="D4" s="3">
         <v>45593</v>
@@ -1742,10 +1739,10 @@
         <v>45597</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1753,10 +1750,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="16">
+        <v>4</v>
       </c>
       <c r="D5" s="3">
         <v>45593</v>
@@ -1774,10 +1771,10 @@
         <v>45597</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1785,10 +1782,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="16">
+        <v>4</v>
       </c>
       <c r="D6" s="3">
         <v>45593</v>
@@ -1806,10 +1803,10 @@
         <v>45597</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1817,10 +1814,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="16">
+        <v>4</v>
       </c>
       <c r="D7" s="3">
         <v>45593</v>
@@ -1838,10 +1835,10 @@
         <v>45597</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1849,10 +1846,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="16">
+        <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>45593</v>
@@ -1870,10 +1867,10 @@
         <v>45597</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1881,10 +1878,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="16">
+        <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>45593</v>
@@ -1902,10 +1899,10 @@
         <v>45597</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1913,10 +1910,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="16">
+        <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>45593</v>
@@ -1934,10 +1931,10 @@
         <v>45597</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1945,10 +1942,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="16">
+        <v>4</v>
       </c>
       <c r="D11" s="3">
         <v>45593</v>
@@ -1966,10 +1963,10 @@
         <v>45597</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1977,10 +1974,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="16">
+        <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>45593</v>
@@ -1998,10 +1995,10 @@
         <v>45597</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2009,10 +2006,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="16">
+        <v>4</v>
       </c>
       <c r="D13" s="3">
         <v>45593</v>
@@ -2030,10 +2027,10 @@
         <v>45597</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2041,10 +2038,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C14" s="16">
+        <v>4</v>
       </c>
       <c r="D14" s="3">
         <v>45593</v>
@@ -2062,10 +2059,10 @@
         <v>45597</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
@@ -2079,10 +2076,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C15" s="16">
+        <v>4</v>
       </c>
       <c r="D15" s="3">
         <v>45593</v>
@@ -2100,10 +2097,10 @@
         <v>45597</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2111,10 +2108,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="16">
+        <v>4</v>
       </c>
       <c r="D16" s="3">
         <v>45593</v>
@@ -2132,10 +2129,10 @@
         <v>45597</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2143,10 +2140,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C17" s="16">
+        <v>4</v>
       </c>
       <c r="D17" s="3">
         <v>45593</v>
@@ -2164,10 +2161,10 @@
         <v>45597</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2175,10 +2172,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C18" s="16">
+        <v>4</v>
       </c>
       <c r="D18" s="3">
         <v>45593</v>
@@ -2196,10 +2193,10 @@
         <v>45597</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2207,10 +2204,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="16">
+        <v>4</v>
       </c>
       <c r="D19" s="3">
         <v>45593</v>
@@ -2228,10 +2225,10 @@
         <v>45597</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2239,10 +2236,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C20" s="16">
+        <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>45593</v>
@@ -2260,10 +2257,10 @@
         <v>45597</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2271,10 +2268,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="16">
+        <v>4</v>
       </c>
       <c r="D21" s="3">
         <v>45593</v>
@@ -2292,10 +2289,10 @@
         <v>45597</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2303,10 +2300,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="C22" s="16">
+        <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>45593</v>
@@ -2324,10 +2321,10 @@
         <v>45597</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2335,10 +2332,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="C23" s="16">
+        <v>4</v>
       </c>
       <c r="D23" s="3">
         <v>45593</v>
@@ -2356,10 +2353,10 @@
         <v>45597</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2367,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C24" s="16">
+        <v>4</v>
       </c>
       <c r="D24" s="3">
         <v>45593</v>
@@ -2388,10 +2385,10 @@
         <v>45597</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
@@ -2403,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C25" s="16">
+        <v>4</v>
       </c>
       <c r="D25" s="3">
         <v>45593</v>
@@ -2424,10 +2421,10 @@
         <v>45597</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2435,10 +2432,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C26" s="16">
+        <v>4</v>
       </c>
       <c r="D26" s="3">
         <v>45593</v>
@@ -2456,10 +2453,10 @@
         <v>45597</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2467,10 +2464,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C27" s="16">
+        <v>4</v>
       </c>
       <c r="D27" s="3">
         <v>45593</v>
@@ -2488,10 +2485,10 @@
         <v>45597</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2499,10 +2496,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C28" s="16">
+        <v>4</v>
       </c>
       <c r="D28" s="3">
         <v>45593</v>
@@ -2520,10 +2517,10 @@
         <v>45597</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2531,10 +2528,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C29" s="16">
+        <v>4</v>
       </c>
       <c r="D29" s="3">
         <v>45593</v>
@@ -2552,10 +2549,10 @@
         <v>45597</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2563,10 +2560,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C30" s="16">
+        <v>4</v>
       </c>
       <c r="D30" s="3">
         <v>45593</v>
@@ -2584,10 +2581,10 @@
         <v>45597</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2595,10 +2592,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C31" s="16">
+        <v>4</v>
       </c>
       <c r="D31" s="3">
         <v>45593</v>
@@ -2616,10 +2613,10 @@
         <v>45597</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2627,10 +2624,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C32" s="16">
+        <v>4</v>
       </c>
       <c r="D32" s="3">
         <v>45593</v>
@@ -2648,10 +2645,10 @@
         <v>45597</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2659,10 +2656,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="C33" s="16">
+        <v>4</v>
       </c>
       <c r="D33" s="3">
         <v>45593</v>
@@ -2680,10 +2677,10 @@
         <v>45597</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2691,10 +2688,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="C34" s="16">
+        <v>4</v>
       </c>
       <c r="D34" s="3">
         <v>45593</v>
@@ -2712,10 +2709,10 @@
         <v>45597</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2723,10 +2720,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="C35" s="16">
+        <v>4</v>
       </c>
       <c r="D35" s="3">
         <v>45593</v>
@@ -2744,10 +2741,10 @@
         <v>45597</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2755,10 +2752,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="C36" s="16">
+        <v>4</v>
       </c>
       <c r="D36" s="3">
         <v>45593</v>
@@ -2776,10 +2773,10 @@
         <v>45597</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2787,10 +2784,10 @@
         <v>5</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="C37" s="16">
+        <v>4</v>
       </c>
       <c r="D37" s="3">
         <v>45593</v>
@@ -2808,10 +2805,10 @@
         <v>45597</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2819,10 +2816,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="C38" s="16">
+        <v>4</v>
       </c>
       <c r="D38" s="3">
         <v>45593</v>
@@ -2840,10 +2837,10 @@
         <v>45597</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2851,10 +2848,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="C39" s="16">
+        <v>4</v>
       </c>
       <c r="D39" s="3">
         <v>45593</v>
@@ -2872,10 +2869,10 @@
         <v>45597</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2883,10 +2880,10 @@
         <v>5</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="C40" s="16">
+        <v>4</v>
       </c>
       <c r="D40" s="3">
         <v>45593</v>
@@ -2904,10 +2901,10 @@
         <v>45597</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2915,10 +2912,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="C41" s="16">
+        <v>4</v>
       </c>
       <c r="D41" s="3">
         <v>45593</v>
@@ -2936,10 +2933,10 @@
         <v>45597</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2947,10 +2944,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="C42" s="16">
+        <v>4</v>
       </c>
       <c r="D42" s="3">
         <v>45593</v>
@@ -2968,10 +2965,10 @@
         <v>45597</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2979,10 +2976,10 @@
         <v>5</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="C43" s="16">
+        <v>4</v>
       </c>
       <c r="D43" s="3">
         <v>45593</v>
@@ -3000,10 +2997,10 @@
         <v>45597</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3011,10 +3008,10 @@
         <v>5</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="C44" s="16">
+        <v>4</v>
       </c>
       <c r="D44" s="3">
         <v>45593</v>
@@ -3032,10 +3029,10 @@
         <v>45597</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3043,10 +3040,10 @@
         <v>5</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="C45" s="16">
+        <v>4</v>
       </c>
       <c r="D45" s="3">
         <v>45593</v>
@@ -3064,10 +3061,10 @@
         <v>45597</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
